--- a/PensionModule/DataFiles/Sample_Sheets/sa_cont_sample.xlsx
+++ b/PensionModule/DataFiles/Sample_Sheets/sa_cont_sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>emp_no</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>SAID</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -386,19 +389,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -406,12 +409,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
